--- a/biology/Microbiologie/Ewingella/Ewingella.xlsx
+++ b/biology/Microbiologie/Ewingella/Ewingella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ewingella est un genre de bacilles Gram négatifs (BGN) de la famille des Yersiniaceae. Son nom fait référence au bactériologiste américain William H. Ewing en hommage à ses travaux portant sur la nomenclature et la classification des Enterobacteriaceae et Vibrionaceae[1].
-Il s'agit (en 2022) d'un genre monospécifique dont l'unique espèce, qui est donc l'espèce type, est Ewingella americana[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ewingella est un genre de bacilles Gram négatifs (BGN) de la famille des Yersiniaceae. Son nom fait référence au bactériologiste américain William H. Ewing en hommage à ses travaux portant sur la nomenclature et la classification des Enterobacteriaceae et Vibrionaceae.
+Il s'agit (en 2022) d'un genre monospécifique dont l'unique espèce, qui est donc l'espèce type, est Ewingella americana.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Pathogénicité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ewingella americana est l'agent pathogène qui provoque la nécrose interne du pied du champignon cultivé, Agaricus bisporus (champignon de Paris)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ewingella americana est l'agent pathogène qui provoque la nécrose interne du pied du champignon cultivé, Agaricus bisporus (champignon de Paris).
 </t>
         </is>
       </c>
